--- a/DataMD/table1a.xlsx
+++ b/DataMD/table1a.xlsx
@@ -360,11 +360,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +451,21 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -594,11 +610,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -652,7 +669,6 @@
     <xf numFmtId="164" fontId="13" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,6 +700,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -701,11 +718,14 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1010,14 +1030,14 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="38" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" customWidth="1"/>
   </cols>
@@ -1032,15 +1052,16 @@
       <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>47</v>
       </c>
+      <c r="G1" s="49"/>
       <c r="H1" t="s">
         <v>41</v>
       </c>
@@ -1052,15 +1073,16 @@
       <c r="B2" s="9">
         <v>6052177</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <f>SUM(C3:C26)</f>
         <v>6052177</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1075,10 +1097,11 @@
       <c r="B3" s="11">
         <v>5880581</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1093,10 +1116,11 @@
       <c r="B4" s="11">
         <v>3568679</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1111,10 +1135,11 @@
       <c r="B5" s="11">
         <v>1862566</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="41" t="s">
         <v>38</v>
       </c>
@@ -1129,10 +1154,11 @@
       <c r="B6" s="11">
         <v>35386</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="41" t="s">
         <v>0</v>
       </c>
@@ -1147,10 +1173,11 @@
       <c r="B7" s="11">
         <v>407369</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="41" t="s">
         <v>39</v>
       </c>
@@ -1165,10 +1192,11 @@
       <c r="B8" s="11">
         <v>6581</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="23" t="s">
         <v>42</v>
       </c>
@@ -1180,10 +1208,11 @@
       <c r="B9" s="11">
         <v>171596</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="25" t="s">
         <v>43</v>
       </c>
@@ -1195,11 +1224,11 @@
       <c r="B10" s="14">
         <v>5437929</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="25" t="s">
         <v>44</v>
       </c>
@@ -1211,10 +1240,11 @@
       <c r="B11" s="11">
         <v>5293835</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="26" t="s">
         <v>45</v>
       </c>
@@ -1226,20 +1256,21 @@
       <c r="B12" s="11">
         <v>3077907</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <f t="shared" ref="C12:C17" si="0">B12</f>
         <v>3077907</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="39">
         <f>C12/C$2</f>
         <v>0.50856196043175872</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>49</v>
       </c>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1248,20 +1279,21 @@
       <c r="B13" s="11">
         <v>1798282</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <f t="shared" si="0"/>
         <v>1798282</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="39">
         <f t="shared" ref="D13:D18" si="1">C13/C$2</f>
         <v>0.29712977660765705</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>48</v>
       </c>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -1270,19 +1302,23 @@
       <c r="B14" s="11">
         <v>14632</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <f t="shared" si="0"/>
         <v>14632</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="39">
         <f t="shared" si="1"/>
         <v>2.4176424450243275E-3</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>48</v>
+      </c>
+      <c r="G14" s="49">
+        <f>D14</f>
+        <v>2.4176424450243275E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1292,20 +1328,21 @@
       <c r="B15" s="11">
         <v>399980</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <f t="shared" si="0"/>
         <v>399980</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="39">
         <f t="shared" si="1"/>
         <v>6.6088615716295152E-2</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>48</v>
       </c>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1314,19 +1351,23 @@
       <c r="B16" s="11">
         <v>3034</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <f t="shared" si="0"/>
         <v>3034</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="39">
         <f t="shared" si="1"/>
         <v>5.0130721556887708E-4</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>48</v>
+      </c>
+      <c r="G16" s="49">
+        <f t="shared" ref="G16:G17" si="2">D16</f>
+        <v>5.0130721556887708E-4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1336,19 +1377,23 @@
       <c r="B17" s="11">
         <v>144094</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <f t="shared" si="0"/>
         <v>144094</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="39">
         <f t="shared" si="1"/>
         <v>2.3808622913705266E-2</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>48</v>
+      </c>
+      <c r="G17" s="49">
+        <f t="shared" si="2"/>
+        <v>2.3808622913705266E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,21 +1403,21 @@
       <c r="B18" s="14">
         <v>614248</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <f>B18</f>
         <v>614248</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <f t="shared" si="1"/>
         <v>0.10149207466999065</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1381,10 +1426,11 @@
       <c r="B19" s="11">
         <v>586746</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="34"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -1393,10 +1439,11 @@
       <c r="B20" s="11">
         <v>490772</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="34"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -1405,10 +1452,11 @@
       <c r="B21" s="11">
         <v>64284</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
@@ -1417,10 +1465,11 @@
       <c r="B22" s="11">
         <v>20754</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="34"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -1429,10 +1478,11 @@
       <c r="B23" s="11">
         <v>7389</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -1441,10 +1491,11 @@
       <c r="B24" s="11">
         <v>3547</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="34"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -1453,10 +1504,11 @@
       <c r="B25" s="11">
         <v>27502</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="34"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
@@ -1465,30 +1517,30 @@
       <c r="B26" s="17">
         <v>2974270</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="27">
-        <f>SUM(B13:B18)</f>
-        <v>2974270</v>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="49">
+        <f>SUM(G12:G18)</f>
+        <v>2.6727572574298471E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="48"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1496,7 +1548,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="37"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
@@ -1504,7 +1556,7 @@
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
@@ -1512,7 +1564,7 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -1520,7 +1572,7 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="38"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
@@ -3083,6 +3135,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A48128BEA5D14947BA1D52EFA7FEC58E" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff1517a6c7bf4c7204f9d5e0bd821a4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a447206dab0015f8b9f8924535193e8c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3214,25 +3284,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1374EE0C-C513-4A8F-A8ED-8734DBA76BA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D76A7945-0043-4487-8565-F225BA069F3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98D40DCA-DFCF-45D0-9C2C-A35DCD4D3994}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3248,28 +3324,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D76A7945-0043-4487-8565-F225BA069F3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1374EE0C-C513-4A8F-A8ED-8734DBA76BA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>